--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuOrignal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C7BBF-EEE0-4AD8-983A-82D8AA3FF45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -266,7 +267,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:InsuTypeCode
+    <t>InsuCompany</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireInsuPrem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo Asc,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuEndDateRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND OrigInsuNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOrigInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommericalFlag</t>
+  </si>
+  <si>
+    <t>住宅險改商業險註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.InsuTypeCode
 01:住宅火險地震險
 02:火險
 03:地震險
@@ -276,62 +328,11 @@
 07:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>InsuCompany</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireInsuPrem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndoInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo Asc,EndoInsuNo Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuEndDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND OrigInsuNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findOrigInsuNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommericalFlag</t>
-  </si>
-  <si>
-    <t>住宅險改商業險註記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -603,7 +604,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,6 +695,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -729,6 +747,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1091,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>26</v>
@@ -1109,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>65</v>
@@ -1127,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>27</v>
@@ -1158,7 +1193,7 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="25" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1206,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>31</v>
@@ -1285,10 +1320,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>35</v>
@@ -1303,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>35</v>
@@ -1401,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1441,13 +1476,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1455,15 +1490,15 @@
         <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
